--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cd14</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.686052294263345</v>
+        <v>0.871992</v>
       </c>
       <c r="H2">
-        <v>0.686052294263345</v>
+        <v>1.743984</v>
       </c>
       <c r="I2">
-        <v>0.00257630642078948</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J2">
-        <v>0.00257630642078948</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>112.9050934810066</v>
+        <v>143.510063257836</v>
       </c>
       <c r="R2">
-        <v>112.9050934810066</v>
+        <v>574.040253031344</v>
       </c>
       <c r="S2">
-        <v>0.0006104019991567896</v>
+        <v>0.0007386036217803444</v>
       </c>
       <c r="T2">
-        <v>0.0006104019991567896</v>
+        <v>0.0003836345648417232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.686052294263345</v>
+        <v>0.871992</v>
       </c>
       <c r="H3">
-        <v>0.686052294263345</v>
+        <v>1.743984</v>
       </c>
       <c r="I3">
-        <v>0.00257630642078948</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J3">
-        <v>0.00257630642078948</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>76.40652347458496</v>
+        <v>103.561543901376</v>
       </c>
       <c r="R3">
-        <v>76.40652347458496</v>
+        <v>621.369263408256</v>
       </c>
       <c r="S3">
-        <v>0.0004130787481731512</v>
+        <v>0.0005330004716484149</v>
       </c>
       <c r="T3">
-        <v>0.0004130787481731512</v>
+        <v>0.0004152648280583772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.686052294263345</v>
+        <v>0.871992</v>
       </c>
       <c r="H4">
-        <v>0.686052294263345</v>
+        <v>1.743984</v>
       </c>
       <c r="I4">
-        <v>0.00257630642078948</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J4">
-        <v>0.00257630642078948</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>57.64324641766823</v>
+        <v>73.71119024834401</v>
       </c>
       <c r="R4">
-        <v>57.64324641766823</v>
+        <v>442.267141490064</v>
       </c>
       <c r="S4">
-        <v>0.0003116383129088078</v>
+        <v>0.0003793695776257289</v>
       </c>
       <c r="T4">
-        <v>0.0003116383129088078</v>
+        <v>0.0002955697992838653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.686052294263345</v>
+        <v>0.871992</v>
       </c>
       <c r="H5">
-        <v>0.686052294263345</v>
+        <v>1.743984</v>
       </c>
       <c r="I5">
-        <v>0.00257630642078948</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J5">
-        <v>0.00257630642078948</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>54.1990214481872</v>
+        <v>69.44169476771999</v>
       </c>
       <c r="R5">
-        <v>54.1990214481872</v>
+        <v>416.65016860632</v>
       </c>
       <c r="S5">
-        <v>0.0002930177020745355</v>
+        <v>0.0003573957539538791</v>
       </c>
       <c r="T5">
-        <v>0.0002930177020745355</v>
+        <v>0.0002784498217336485</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.686052294263345</v>
+        <v>0.871992</v>
       </c>
       <c r="H6">
-        <v>0.686052294263345</v>
+        <v>1.743984</v>
       </c>
       <c r="I6">
-        <v>0.00257630642078948</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J6">
-        <v>0.00257630642078948</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>79.6333533332183</v>
+        <v>106.150449781728</v>
       </c>
       <c r="R6">
-        <v>79.6333533332183</v>
+        <v>636.902698690368</v>
       </c>
       <c r="S6">
-        <v>0.0004305240496730341</v>
+        <v>0.0005463248003837519</v>
       </c>
       <c r="T6">
-        <v>0.0004305240496730341</v>
+        <v>0.0004256459165856737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.686052294263345</v>
+        <v>0.871992</v>
       </c>
       <c r="H7">
-        <v>0.686052294263345</v>
+        <v>1.743984</v>
       </c>
       <c r="I7">
-        <v>0.00257630642078948</v>
+        <v>0.003182586221429946</v>
       </c>
       <c r="J7">
-        <v>0.00257630642078948</v>
+        <v>0.002124695300791682</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>95.74809049231374</v>
+        <v>121.998887377884</v>
       </c>
       <c r="R7">
-        <v>95.74809049231374</v>
+        <v>487.995549511536</v>
       </c>
       <c r="S7">
-        <v>0.0005176456088031613</v>
+        <v>0.0006278919960378271</v>
       </c>
       <c r="T7">
-        <v>0.0005176456088031613</v>
+        <v>0.0003261303702883942</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.838470341916874</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H8">
-        <v>0.838470341916874</v>
+        <v>2.885984</v>
       </c>
       <c r="I8">
-        <v>0.003148676192157452</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J8">
-        <v>0.003148676192157452</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>137.9888575940504</v>
+        <v>158.3224564755573</v>
       </c>
       <c r="R8">
-        <v>137.9888575940504</v>
+        <v>949.934738853344</v>
       </c>
       <c r="S8">
-        <v>0.0007460130622976651</v>
+        <v>0.0008148386050942843</v>
       </c>
       <c r="T8">
-        <v>0.0007460130622976651</v>
+        <v>0.0006348471178520995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.838470341916874</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H9">
-        <v>0.838470341916874</v>
+        <v>2.885984</v>
       </c>
       <c r="I9">
-        <v>0.003148676192157452</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J9">
-        <v>0.003148676192157452</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>93.3815168291287</v>
+        <v>114.2506501262507</v>
       </c>
       <c r="R9">
-        <v>93.3815168291287</v>
+        <v>1028.255851136256</v>
       </c>
       <c r="S9">
-        <v>0.000504851134695552</v>
+        <v>0.0005880141229008902</v>
       </c>
       <c r="T9">
-        <v>0.000504851134695552</v>
+        <v>0.0006871895897779038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.838470341916874</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H10">
-        <v>0.838470341916874</v>
+        <v>2.885984</v>
       </c>
       <c r="I10">
-        <v>0.003148676192157452</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J10">
-        <v>0.003148676192157452</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>70.44966241956526</v>
+        <v>81.31929179689601</v>
       </c>
       <c r="R10">
-        <v>70.44966241956526</v>
+        <v>731.8736261720641</v>
       </c>
       <c r="S10">
-        <v>0.0003808740018275408</v>
+        <v>0.0004185262139693223</v>
       </c>
       <c r="T10">
-        <v>0.0003808740018275408</v>
+        <v>0.0004891155604732879</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.838470341916874</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H11">
-        <v>0.838470341916874</v>
+        <v>2.885984</v>
       </c>
       <c r="I11">
-        <v>0.003148676192157452</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J11">
-        <v>0.003148676192157452</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>66.24024498601482</v>
+        <v>76.60912027959111</v>
       </c>
       <c r="R11">
-        <v>66.24024498601482</v>
+        <v>689.48208251632</v>
       </c>
       <c r="S11">
-        <v>0.0003581165093397739</v>
+        <v>0.0003942843617750437</v>
       </c>
       <c r="T11">
-        <v>0.0003581165093397739</v>
+        <v>0.0004607850360589098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.838470341916874</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H12">
-        <v>0.838470341916874</v>
+        <v>2.885984</v>
       </c>
       <c r="I12">
-        <v>0.003148676192157452</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J12">
-        <v>0.003148676192157452</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>97.32524117419636</v>
+        <v>117.1067699638186</v>
       </c>
       <c r="R12">
-        <v>97.32524117419636</v>
+        <v>1053.960929674368</v>
       </c>
       <c r="S12">
-        <v>0.0005261722031268673</v>
+        <v>0.0006027137224159174</v>
       </c>
       <c r="T12">
-        <v>0.0005261722031268673</v>
+        <v>0.0007043684488685613</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.838470341916874</v>
+        <v>0.9619946666666667</v>
       </c>
       <c r="H13">
-        <v>0.838470341916874</v>
+        <v>2.885984</v>
       </c>
       <c r="I13">
-        <v>0.003148676192157452</v>
+        <v>0.003511076903483549</v>
       </c>
       <c r="J13">
-        <v>0.003148676192157452</v>
+        <v>0.003515993634666363</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>117.0201380336197</v>
+        <v>134.5910042715893</v>
       </c>
       <c r="R13">
-        <v>117.0201380336197</v>
+        <v>807.5460256295361</v>
       </c>
       <c r="S13">
-        <v>0.0006326492808700528</v>
+        <v>0.0006926998773280918</v>
       </c>
       <c r="T13">
-        <v>0.0006326492808700528</v>
+        <v>0.0005396878816356005</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>139.404803631245</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H14">
-        <v>139.404803631245</v>
+        <v>429.519035</v>
       </c>
       <c r="I14">
-        <v>0.523501624711733</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J14">
-        <v>0.523501624711733</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>22942.14670994947</v>
+        <v>23563.02346936466</v>
       </c>
       <c r="R14">
-        <v>22942.14670994947</v>
+        <v>141378.140816188</v>
       </c>
       <c r="S14">
-        <v>0.1240327764225918</v>
+        <v>0.1212718751527531</v>
       </c>
       <c r="T14">
-        <v>0.1240327764225918</v>
+        <v>0.09448386457872431</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>139.404803631245</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H15">
-        <v>139.404803631245</v>
+        <v>429.519035</v>
       </c>
       <c r="I15">
-        <v>0.523501624711733</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J15">
-        <v>0.523501624711733</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>15525.69168587608</v>
+        <v>17003.84651832782</v>
       </c>
       <c r="R15">
-        <v>15525.69168587608</v>
+        <v>153034.6186649505</v>
       </c>
       <c r="S15">
-        <v>0.08393698593363243</v>
+        <v>0.08751374180687133</v>
       </c>
       <c r="T15">
-        <v>0.08393698593363243</v>
+        <v>0.1022739590598739</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>139.404803631245</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H16">
-        <v>139.404803631245</v>
+        <v>429.519035</v>
       </c>
       <c r="I16">
-        <v>0.523501624711733</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J16">
-        <v>0.523501624711733</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>11713.0217546331</v>
+        <v>12102.69486576717</v>
       </c>
       <c r="R16">
-        <v>11713.0217546331</v>
+        <v>108924.2537919045</v>
       </c>
       <c r="S16">
-        <v>0.06332444068520038</v>
+        <v>0.06228897164582576</v>
       </c>
       <c r="T16">
-        <v>0.06332444068520038</v>
+        <v>0.07279473605465962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>139.404803631245</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H17">
-        <v>139.404803631245</v>
+        <v>429.519035</v>
       </c>
       <c r="I17">
-        <v>0.523501624711733</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J17">
-        <v>0.523501624711733</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>11013.16037446252</v>
+        <v>11401.68324380485</v>
       </c>
       <c r="R17">
-        <v>11013.16037446252</v>
+        <v>102615.1491942437</v>
       </c>
       <c r="S17">
-        <v>0.0595407603177543</v>
+        <v>0.05868107327871799</v>
       </c>
       <c r="T17">
-        <v>0.0595407603177543</v>
+        <v>0.06857832338310371</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>139.404803631245</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H18">
-        <v>139.404803631245</v>
+        <v>429.519035</v>
       </c>
       <c r="I18">
-        <v>0.523501624711733</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J18">
-        <v>0.523501624711733</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>16181.37870355049</v>
+        <v>17428.92089035365</v>
       </c>
       <c r="R18">
-        <v>16181.37870355049</v>
+        <v>156860.2880131828</v>
       </c>
       <c r="S18">
-        <v>0.08748184519613278</v>
+        <v>0.08970147320059386</v>
       </c>
       <c r="T18">
-        <v>0.08748184519613278</v>
+        <v>0.1048306769692664</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>139.404803631245</v>
+        <v>143.1730116666667</v>
       </c>
       <c r="H19">
-        <v>139.404803631245</v>
+        <v>429.519035</v>
       </c>
       <c r="I19">
-        <v>0.523501624711733</v>
+        <v>0.5225511864913465</v>
       </c>
       <c r="J19">
-        <v>0.523501624711733</v>
+        <v>0.5232829402477764</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>19455.8692752131</v>
+        <v>20031.08758552159</v>
       </c>
       <c r="R19">
-        <v>19455.8692752131</v>
+        <v>120186.5255131295</v>
       </c>
       <c r="S19">
-        <v>0.1051848161564213</v>
+        <v>0.1030940514065845</v>
       </c>
       <c r="T19">
-        <v>0.1051848161564213</v>
+        <v>0.08032138020214852</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>125.363645999869</v>
+        <v>127.989131</v>
       </c>
       <c r="H20">
-        <v>125.363645999869</v>
+        <v>383.967393</v>
       </c>
       <c r="I20">
-        <v>0.47077339267532</v>
+        <v>0.4671332361000931</v>
       </c>
       <c r="J20">
-        <v>0.47077339267532</v>
+        <v>0.4677873854142773</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>20631.36336557729</v>
+        <v>21064.10183364694</v>
       </c>
       <c r="R20">
-        <v>20631.36336557729</v>
+        <v>126384.6110018816</v>
       </c>
       <c r="S20">
-        <v>0.1115399230929918</v>
+        <v>0.1084106685670499</v>
       </c>
       <c r="T20">
-        <v>0.1115399230929918</v>
+        <v>0.0844635981333349</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>125.363645999869</v>
+        <v>127.989131</v>
       </c>
       <c r="H21">
-        <v>125.363645999869</v>
+        <v>383.967393</v>
       </c>
       <c r="I21">
-        <v>0.47077339267532</v>
+        <v>0.4671332361000931</v>
       </c>
       <c r="J21">
-        <v>0.47077339267532</v>
+        <v>0.4677873854142773</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>13961.90996086335</v>
+        <v>15200.54313451897</v>
       </c>
       <c r="R21">
-        <v>13961.90996086335</v>
+        <v>136804.8882106707</v>
       </c>
       <c r="S21">
-        <v>0.07548266857944502</v>
+        <v>0.0782326755163703</v>
       </c>
       <c r="T21">
-        <v>0.07548266857944502</v>
+        <v>0.0914275322675944</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>125.363645999869</v>
+        <v>127.989131</v>
       </c>
       <c r="H22">
-        <v>125.363645999869</v>
+        <v>383.967393</v>
       </c>
       <c r="I22">
-        <v>0.47077339267532</v>
+        <v>0.4671332361000931</v>
       </c>
       <c r="J22">
-        <v>0.47077339267532</v>
+        <v>0.4677873854142773</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>10533.26050887586</v>
+        <v>10819.17171815937</v>
       </c>
       <c r="R22">
-        <v>10533.26050887586</v>
+        <v>97372.54546343432</v>
       </c>
       <c r="S22">
-        <v>0.05694626410577919</v>
+        <v>0.05568305967044892</v>
       </c>
       <c r="T22">
-        <v>0.05694626410577919</v>
+        <v>0.06507465967609738</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>125.363645999869</v>
+        <v>127.989131</v>
       </c>
       <c r="H23">
-        <v>125.363645999869</v>
+        <v>383.967393</v>
       </c>
       <c r="I23">
-        <v>0.47077339267532</v>
+        <v>0.4671332361000931</v>
       </c>
       <c r="J23">
-        <v>0.47077339267532</v>
+        <v>0.4677873854142773</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>9903.890702188521</v>
+        <v>10192.50425289192</v>
       </c>
       <c r="R23">
-        <v>9903.890702188521</v>
+        <v>91732.53827602726</v>
       </c>
       <c r="S23">
-        <v>0.05354368432512914</v>
+        <v>0.05245778857104973</v>
       </c>
       <c r="T23">
-        <v>0.05354368432512914</v>
+        <v>0.06130540884112685</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>125.363645999869</v>
+        <v>127.989131</v>
       </c>
       <c r="H24">
-        <v>125.363645999869</v>
+        <v>383.967393</v>
       </c>
       <c r="I24">
-        <v>0.47077339267532</v>
+        <v>0.4671332361000931</v>
       </c>
       <c r="J24">
-        <v>0.47077339267532</v>
+        <v>0.4677873854142773</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>14551.55474374959</v>
+        <v>15580.5372329362</v>
       </c>
       <c r="R24">
-        <v>14551.55474374959</v>
+        <v>140224.8350964258</v>
       </c>
       <c r="S24">
-        <v>0.07867048184073673</v>
+        <v>0.08018839214679134</v>
       </c>
       <c r="T24">
-        <v>0.07867048184073673</v>
+        <v>0.09371310340719675</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>127.989131</v>
+      </c>
+      <c r="H25">
+        <v>383.967393</v>
+      </c>
+      <c r="I25">
+        <v>0.4671332361000931</v>
+      </c>
+      <c r="J25">
+        <v>0.4677873854142773</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>17906.73719307315</v>
+      </c>
+      <c r="R25">
+        <v>107440.4231584389</v>
+      </c>
+      <c r="S25">
+        <v>0.09216065162838298</v>
+      </c>
+      <c r="T25">
+        <v>0.07180308308892708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H26">
+        <v>2.144779</v>
+      </c>
+      <c r="I26">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J26">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>164.5772705</v>
+      </c>
+      <c r="N26">
+        <v>329.154541</v>
+      </c>
+      <c r="O26">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P26">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q26">
+        <v>117.6606245485731</v>
+      </c>
+      <c r="R26">
+        <v>705.9637472914389</v>
+      </c>
+      <c r="S26">
+        <v>0.0006055642472707795</v>
+      </c>
+      <c r="T26">
+        <v>0.0004717998320779699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H27">
+        <v>2.144779</v>
+      </c>
+      <c r="I27">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J27">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>118.764328</v>
+      </c>
+      <c r="N27">
+        <v>356.292984</v>
+      </c>
+      <c r="O27">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P27">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q27">
+        <v>84.90774554783731</v>
+      </c>
+      <c r="R27">
+        <v>764.1697099305359</v>
+      </c>
+      <c r="S27">
+        <v>0.0004369949183714282</v>
+      </c>
+      <c r="T27">
+        <v>0.0005106992281226307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H28">
+        <v>2.144779</v>
+      </c>
+      <c r="I28">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J28">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N28">
+        <v>253.595871</v>
+      </c>
+      <c r="O28">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P28">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q28">
+        <v>60.43412206750099</v>
+      </c>
+      <c r="R28">
+        <v>543.9070986075089</v>
+      </c>
+      <c r="S28">
+        <v>0.0003110364557360363</v>
+      </c>
+      <c r="T28">
+        <v>0.0003634963959177659</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H29">
+        <v>2.144779</v>
+      </c>
+      <c r="I29">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J29">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N29">
+        <v>238.907105</v>
+      </c>
+      <c r="O29">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P29">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q29">
+        <v>56.93366019497721</v>
+      </c>
+      <c r="R29">
+        <v>512.4029417547949</v>
+      </c>
+      <c r="S29">
+        <v>0.0002930206193670915</v>
+      </c>
+      <c r="T29">
+        <v>0.0003424419777980032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H30">
+        <v>2.144779</v>
+      </c>
+      <c r="I30">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J30">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>121.733284</v>
+      </c>
+      <c r="N30">
+        <v>365.199852</v>
+      </c>
+      <c r="O30">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P30">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q30">
+        <v>87.0303303747453</v>
+      </c>
+      <c r="R30">
+        <v>783.2729733727078</v>
+      </c>
+      <c r="S30">
+        <v>0.0004479192313087975</v>
+      </c>
+      <c r="T30">
+        <v>0.0005234660543495265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>125.363645999869</v>
-      </c>
-      <c r="H25">
-        <v>125.363645999869</v>
-      </c>
-      <c r="I25">
-        <v>0.47077339267532</v>
-      </c>
-      <c r="J25">
-        <v>0.47077339267532</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q25">
-        <v>17496.23144184734</v>
-      </c>
-      <c r="R25">
-        <v>17496.23144184734</v>
-      </c>
-      <c r="S25">
-        <v>0.09459037073123798</v>
-      </c>
-      <c r="T25">
-        <v>0.09459037073123798</v>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.7149263333333332</v>
+      </c>
+      <c r="H31">
+        <v>2.144779</v>
+      </c>
+      <c r="I31">
+        <v>0.002609329784910984</v>
+      </c>
+      <c r="J31">
+        <v>0.002612983755892647</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>100.0241025420152</v>
+      </c>
+      <c r="R31">
+        <v>600.1446152520909</v>
+      </c>
+      <c r="S31">
+        <v>0.0005147943128568513</v>
+      </c>
+      <c r="T31">
+        <v>0.0004010802676267511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.2774365</v>
+      </c>
+      <c r="H32">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I32">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J32">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>164.5772705</v>
+      </c>
+      <c r="N32">
+        <v>329.154541</v>
+      </c>
+      <c r="O32">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P32">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q32">
+        <v>45.65974190707325</v>
+      </c>
+      <c r="R32">
+        <v>182.638967628293</v>
+      </c>
+      <c r="S32">
+        <v>0.000234997114324515</v>
+      </c>
+      <c r="T32">
+        <v>0.0001220587241037885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.2774365</v>
+      </c>
+      <c r="H33">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J33">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>118.764328</v>
+      </c>
+      <c r="N33">
+        <v>356.292984</v>
+      </c>
+      <c r="O33">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P33">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q33">
+        <v>32.949559485172</v>
+      </c>
+      <c r="R33">
+        <v>197.697356911032</v>
+      </c>
+      <c r="S33">
+        <v>0.0001695815848683078</v>
+      </c>
+      <c r="T33">
+        <v>0.0001321223365232914</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.2774365</v>
+      </c>
+      <c r="H34">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J34">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N34">
+        <v>253.595871</v>
+      </c>
+      <c r="O34">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P34">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q34">
+        <v>23.4522502882305</v>
+      </c>
+      <c r="R34">
+        <v>140.713501729383</v>
+      </c>
+      <c r="S34">
+        <v>0.0001207017585287027</v>
+      </c>
+      <c r="T34">
+        <v>9.403968226660114E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.2774365</v>
+      </c>
+      <c r="H35">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J35">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N35">
+        <v>238.907105</v>
+      </c>
+      <c r="O35">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P35">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q35">
+        <v>22.09385034544416</v>
+      </c>
+      <c r="R35">
+        <v>132.563102072665</v>
+      </c>
+      <c r="S35">
+        <v>0.0001137104779537259</v>
+      </c>
+      <c r="T35">
+        <v>8.85927209967607E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.2774365</v>
+      </c>
+      <c r="H36">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I36">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J36">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>121.733284</v>
+      </c>
+      <c r="N36">
+        <v>365.199852</v>
+      </c>
+      <c r="O36">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P36">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q36">
+        <v>33.77325624646599</v>
+      </c>
+      <c r="R36">
+        <v>202.639537478796</v>
+      </c>
+      <c r="S36">
+        <v>0.0001738209071661974</v>
+      </c>
+      <c r="T36">
+        <v>0.0001354252256176906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.2774365</v>
+      </c>
+      <c r="H37">
+        <v>0.5548729999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.001012584498735939</v>
+      </c>
+      <c r="J37">
+        <v>0.0006760016465954864</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>139.9082645</v>
+      </c>
+      <c r="N37">
+        <v>279.816529</v>
+      </c>
+      <c r="O37">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P37">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q37">
+        <v>38.81565922395425</v>
+      </c>
+      <c r="R37">
+        <v>155.262636895817</v>
+      </c>
+      <c r="S37">
+        <v>0.0001997726558944905</v>
+      </c>
+      <c r="T37">
+        <v>0.0001037629570873541</v>
       </c>
     </row>
   </sheetData>
